--- a/ExcelRAddIn/Tests/Forecast (v2.0).xlsx
+++ b/ExcelRAddIn/Tests/Forecast (v2.0).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Projects\C#\Office\Office365 AddIns\ExcelRAddIn\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32271BFD-36EA-47F6-A842-EE4AAF22C8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573577D2-D303-4FC3-BFA6-65ECFB10A371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="899" activeTab="1" xr2:uid="{237949DD-86ED-4837-BFB0-873A1F9330BE}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="899" firstSheet="5" activeTab="17" xr2:uid="{237949DD-86ED-4837-BFB0-873A1F9330BE}"/>
   </bookViews>
   <sheets>
     <sheet name="References" sheetId="2" r:id="rId1"/>
@@ -209,7 +209,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -231,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="197">
   <si>
     <t>Day</t>
   </si>
@@ -811,6 +811,18 @@
   <si>
     <t>library(ggthemes)</t>
   </si>
+  <si>
+    <t>ma</t>
+  </si>
+  <si>
+    <t>Arguments</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
 </sst>
 </file>
 
@@ -1368,6 +1380,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1375,7 +1388,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2651,6 +2663,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2658,7 +2671,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4348,10 +4360,13 @@
   <dimension ref="B2:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="66.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
@@ -5042,8 +5057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49BD50DD-7652-40B9-95EC-9B1CF9588E72}">
   <dimension ref="B2:DE59"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6730,7 +6745,7 @@
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11033,8 +11048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D0CE19D-675F-4993-83DB-CED3FAA74B62}">
   <dimension ref="B3:Q55"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12037,10 +12052,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F812DA7-7958-4E93-99D4-1625C4C8E1B7}">
-  <dimension ref="B3:AP64"/>
+  <dimension ref="B3:AP90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13610,53 +13625,214 @@
         <f t="array" ref="D55">_xll.RScript.Evaluate(B55)</f>
         <v>pred</v>
       </c>
+      <c r="F55" cm="1">
+        <f t="array" ref="F55:F90">_xll.RScript.Evaluate(D55)</f>
+        <v>-3.8824434388677167</v>
+      </c>
       <c r="R55" t="str">
         <v xml:space="preserve">                YY &lt;- cbind(Y, wts - Y)</v>
       </c>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F56">
+        <v>-3.8020798571577741</v>
+      </c>
       <c r="R56" t="str">
         <v xml:space="preserve">                colnames(YY) &lt;- colnames(y)</v>
       </c>
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F57">
+        <v>-3.915989539762986</v>
+      </c>
       <c r="R57" t="str">
         <v xml:space="preserve">                yy[[i]] &lt;- YY</v>
       </c>
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F58">
+        <v>-3.7180161643184917</v>
+      </c>
       <c r="R58" t="str">
         <v xml:space="preserve">            }</v>
       </c>
     </row>
     <row r="59" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F59">
+        <v>-4.1086028376558739</v>
+      </c>
       <c r="R59" t="str">
         <v xml:space="preserve">            yy</v>
       </c>
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F60">
+        <v>-3.6248765652014647</v>
+      </c>
       <c r="R60" t="str">
         <v xml:space="preserve">        }</v>
       </c>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F61">
+        <v>-3.4608891489154843</v>
+      </c>
       <c r="R61" t="str">
         <v xml:space="preserve">        else rbinom(ntot, size = wts, prob = ftd)/wts</v>
       </c>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F62">
+        <v>-2.8937568831519815</v>
+      </c>
       <c r="R62" t="str">
         <v xml:space="preserve">    }</v>
       </c>
     </row>
     <row r="63" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F63">
+        <v>-3.1092955934676345</v>
+      </c>
       <c r="R63" t="str">
         <v xml:space="preserve">    else rbinom(ntot, size = wts, prob = ftd)/wts</v>
       </c>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F64">
+        <v>-2.5746798166384552</v>
+      </c>
       <c r="R64" t="str">
         <v>}</v>
+      </c>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F65">
+        <v>-2.9139090537622607</v>
+      </c>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F66">
+        <v>-2.124835946587142</v>
+      </c>
+    </row>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F67">
+        <v>-2.0739265488862282</v>
+      </c>
+    </row>
+    <row r="68" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F68">
+        <v>-1.5718935786011974</v>
+      </c>
+    </row>
+    <row r="69" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F69">
+        <v>-1.4994214059329103</v>
+      </c>
+    </row>
+    <row r="70" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F70">
+        <v>-1.6196735396556603</v>
+      </c>
+    </row>
+    <row r="71" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F71">
+        <v>-1.3378028985144637</v>
+      </c>
+    </row>
+    <row r="72" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F72">
+        <v>-0.68788672804912032</v>
+      </c>
+    </row>
+    <row r="73" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F73">
+        <v>-0.94022770200143579</v>
+      </c>
+    </row>
+    <row r="74" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F74">
+        <v>-0.63588730990214781</v>
+      </c>
+    </row>
+    <row r="75" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F75">
+        <v>0.16688041814285359</v>
+      </c>
+    </row>
+    <row r="76" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F76">
+        <v>0.11099538250914343</v>
+      </c>
+    </row>
+    <row r="77" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F77">
+        <v>0.43179200981871446</v>
+      </c>
+    </row>
+    <row r="78" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F78">
+        <v>-1.3475394194789381E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F79">
+        <v>0.79969518105577198</v>
+      </c>
+    </row>
+    <row r="80" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F80">
+        <v>0.79490995371640683</v>
+      </c>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F81">
+        <v>0.39677234857454646</v>
+      </c>
+    </row>
+    <row r="82" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F82">
+        <v>1.6901281461546631</v>
+      </c>
+    </row>
+    <row r="83" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F83">
+        <v>1.8661427651455327</v>
+      </c>
+    </row>
+    <row r="84" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F84">
+        <v>1.6109333440840192</v>
+      </c>
+    </row>
+    <row r="85" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F85">
+        <v>2.4371416547856022</v>
+      </c>
+    </row>
+    <row r="86" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F86">
+        <v>2.8284854942838802</v>
+      </c>
+    </row>
+    <row r="87" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F87">
+        <v>0.20730084330687948</v>
+      </c>
+    </row>
+    <row r="88" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F88">
+        <v>2.9372141392727551</v>
+      </c>
+    </row>
+    <row r="89" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F89">
+        <v>0.8707816325337836</v>
+      </c>
+    </row>
+    <row r="90" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F90">
+        <v>3.0424322696143946</v>
       </c>
     </row>
   </sheetData>
@@ -14857,8 +15033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA1CB6E-EEA6-410B-8C3F-D152623D3978}">
   <dimension ref="C2:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14911,11 +15087,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16A5A11-FD74-4F49-8237-7EB8CA3CF65D}">
   <dimension ref="B2:AJ1110"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AG3" sqref="AG3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.109375" customWidth="1"/>
+    <col min="20" max="20" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="10.5546875" customWidth="1"/>
     <col min="34" max="34" width="9.109375" customWidth="1"/>
@@ -24398,8 +24581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802D2D21-890B-43CA-86AD-4F4EC49F4A39}">
   <dimension ref="B2:P185"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24876,6 +25059,12 @@
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B38" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>193</v>
+      </c>
       <c r="M38">
         <v>22417</v>
       </c>
@@ -24892,6 +25081,9 @@
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B40" s="10" t="s">
+        <v>194</v>
+      </c>
       <c r="M40">
         <v>26580</v>
       </c>
@@ -24900,6 +25092,15 @@
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B41" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>196</v>
+      </c>
       <c r="M41">
         <v>27454</v>
       </c>
@@ -24908,6 +25109,16 @@
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B42" t="str" cm="1">
+        <f t="array" ref="B42:D44">_xll.RScript.Params(C38,TRUE,TRUE)</f>
+        <v>x</v>
+      </c>
+      <c r="C42" t="str">
+        <v>symbol</v>
+      </c>
+      <c r="D42" t="str">
+        <v>&lt;missing&gt;</v>
+      </c>
       <c r="M42">
         <v>24081</v>
       </c>
@@ -24916,6 +25127,15 @@
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B43" t="str">
+        <v>order</v>
+      </c>
+      <c r="C43" t="str">
+        <v>symbol</v>
+      </c>
+      <c r="D43" t="str">
+        <v>&lt;missing&gt;</v>
+      </c>
       <c r="M43">
         <v>23451</v>
       </c>
@@ -24924,6 +25144,15 @@
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B44" t="str">
+        <v>centre</v>
+      </c>
+      <c r="C44" t="str">
+        <v>logical</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
       <c r="M44">
         <v>28991</v>
       </c>
@@ -26077,8 +26306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308408BE-F88F-4E2E-AA56-919DEB63F0E1}">
   <dimension ref="B2:M55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26701,7 +26930,7 @@
   <dimension ref="B2:Y114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27805,7 +28034,7 @@
   <dimension ref="B2:O51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28547,7 +28776,7 @@
   <dimension ref="B2:W104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29646,8 +29875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D562DCAA-9A4E-4A3E-8308-7D30612CCEAE}">
   <dimension ref="B2:EX32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
